--- a/BalanceSheet/CTLT_bal.xlsx
+++ b/BalanceSheet/CTLT_bal.xlsx
@@ -456,19 +456,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-74900000.0</v>
+        <v>461000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-65400000.0</v>
+        <v>384000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-21700000.0</v>
+        <v>324000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-43100000.0</v>
+        <v>297000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-11800000.0</v>
+        <v>250000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>250700000.0</v>
@@ -1531,19 +1531,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>6800000.0</v>
+        <v>357000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>6600000.0</v>
+        <v>329000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>42300000.0</v>
+        <v>321000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>43200000.0</v>
+        <v>276000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>34000000.0</v>
+        <v>243000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>214000000.0</v>
@@ -2951,19 +2951,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>5300000.0</v>
+        <v>22000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>-10600000.0</v>
+        <v>27000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>-3000000.0</v>
+        <v>45000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>2700000.0</v>
+        <v>51000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>3300000.0</v>
+        <v>41000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>70500000.0</v>
